--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>83800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2271900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>2271900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>141500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>141500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3243900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>3243900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1507700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>1507700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>252100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>252100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>369900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>369900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1267400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>1267400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>171000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>171000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>343500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>343500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>110500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>110500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>209100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,76 @@
         <v>209100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>642500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>408300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,76 @@
         <v>408300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>257600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>832600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>832600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1365100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>1365100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>64200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>64200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>206800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>206800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1569200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,76 @@
         <v>1569200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>575600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>326900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>326900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1135200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>1135200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1563100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2372"/>
+  <dimension ref="A1:I2373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83400,6 +83400,41 @@
         <v>1563100</v>
       </c>
     </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2373" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G2373" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H2373" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2373" t="n">
+        <v>804800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2373"/>
+  <dimension ref="A1:I2374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83435,6 +83435,41 @@
         <v>804800</v>
       </c>
     </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2374" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2374" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H2374" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I2374" t="n">
+        <v>839400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2374"/>
+  <dimension ref="A1:I2375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83470,6 +83470,41 @@
         <v>839400</v>
       </c>
     </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2375" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2375" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2375" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2375" t="n">
+        <v>785000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2375"/>
+  <dimension ref="A1:I2376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83505,6 +83505,41 @@
         <v>785000</v>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2376" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I2376" t="n">
+        <v>1043100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2376"/>
+  <dimension ref="A1:I2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83540,6 +83540,41 @@
         <v>1043100</v>
       </c>
     </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2377" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I2377" t="n">
+        <v>368800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2377"/>
+  <dimension ref="A1:I2378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83575,6 +83575,41 @@
         <v>368800</v>
       </c>
     </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2378" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2378" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2378" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2378" t="n">
+        <v>1348100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2378"/>
+  <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83610,6 +83610,41 @@
         <v>1348100</v>
       </c>
     </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2379" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2379" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2379" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2379" t="n">
+        <v>375000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2379"/>
+  <dimension ref="A1:I2380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83645,6 +83645,41 @@
         <v>375000</v>
       </c>
     </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2380" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2380" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H2380" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2380" t="n">
+        <v>604000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2380"/>
+  <dimension ref="A1:I2381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83680,6 +83680,41 @@
         <v>604000</v>
       </c>
     </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2381" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2381" t="n">
+        <v>224400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2381"/>
+  <dimension ref="A1:I2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83715,6 +83715,41 @@
         <v>224400</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2382" t="n">
+        <v>1291800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2382"/>
+  <dimension ref="A1:I2383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83750,6 +83750,41 @@
         <v>1291800</v>
       </c>
     </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H2383" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2383" t="n">
+        <v>898400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2383"/>
+  <dimension ref="A1:I2384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83785,6 +83785,41 @@
         <v>898400</v>
       </c>
     </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H2384" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2384" t="n">
+        <v>724700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2384"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83820,6 +83820,41 @@
         <v>724700</v>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2385" t="n">
+        <v>1116600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83855,6 +83855,41 @@
         <v>1116600</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I2386" t="n">
+        <v>35200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83890,6 +83890,41 @@
         <v>35200</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>673800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83925,6 +83925,41 @@
         <v>673800</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2388" t="n">
+        <v>355400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83960,6 +83960,41 @@
         <v>355400</v>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2389" t="n">
+        <v>1293400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83995,6 +83995,41 @@
         <v>1293400</v>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2390" t="n">
+        <v>72500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2390"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84030,6 +84030,41 @@
         <v>72500</v>
       </c>
     </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2391" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2391" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2391"/>
+  <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84065,6 +84065,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2392" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2392" t="n">
+        <v>66000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84100,6 +84100,41 @@
         <v>66000</v>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2393" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2393" t="n">
+        <v>348200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84135,6 +84135,41 @@
         <v>348200</v>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2394" t="n">
+        <v>52200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84170,6 +84170,41 @@
         <v>52200</v>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2395" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84205,6 +84205,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2396" t="n">
+        <v>56200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2396"/>
+  <dimension ref="A1:I2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84240,6 +84240,41 @@
         <v>56200</v>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2397" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2397" t="n">
+        <v>100500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2397"/>
+  <dimension ref="A1:I2399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84275,6 +84275,76 @@
         <v>100500</v>
       </c>
     </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2398" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2398" t="n">
+        <v>714700</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2399" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2399" t="n">
+        <v>91600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2399"/>
+  <dimension ref="A1:I2400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84345,6 +84345,41 @@
         <v>91600</v>
       </c>
     </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2400" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2400" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I2400" t="n">
+        <v>295600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2400"/>
+  <dimension ref="A1:I2403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84380,6 +84380,113 @@
         <v>295600</v>
       </c>
     </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2401" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2401" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2401" t="n">
+        <v>77200</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2402" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2402" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H2402" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2402" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2403" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2403" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2403" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2403" t="n">
+        <v>48800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2403"/>
+  <dimension ref="A1:I2404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84487,6 +84487,41 @@
         <v>48800</v>
       </c>
     </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2404" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2404" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2404" t="n">
+        <v>74900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2404"/>
+  <dimension ref="A1:I2405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84522,6 +84522,41 @@
         <v>74900</v>
       </c>
     </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2405" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2405" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2405" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2405" t="n">
+        <v>148500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5180.xlsx
+++ b/data/5180.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2405"/>
+  <dimension ref="A1:I2408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84557,6 +84557,111 @@
         <v>148500</v>
       </c>
     </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2406" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2406" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2406" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2406" t="n">
+        <v>192900</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2407" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H2407" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2407" t="n">
+        <v>143100</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>CMMT</t>
+        </is>
+      </c>
+      <c r="E2408" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H2408" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2408" t="n">
+        <v>143200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
